--- a/DOCUMENTATION/TRACETABLE.xlsx
+++ b/DOCUMENTATION/TRACETABLE.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,9 +632,11 @@
     <col min="2" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -651,7 +653,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -670,7 +672,7 @@
         <v>11.2743</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -689,7 +691,7 @@
         <v>7.3449</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -708,7 +710,7 @@
         <v>29.001899999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -727,7 +729,7 @@
         <v>27.9636</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -746,7 +748,7 @@
         <v>1.7427000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -765,7 +767,7 @@
         <v>15.699299999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -781,7 +783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -799,8 +801,15 @@
         <f t="shared" si="1"/>
         <v>19.9224</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9">
+        <f>MAX(D2:D26)</f>
+        <v>265.39169999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -818,8 +827,14 @@
         <f t="shared" si="1"/>
         <v>12.2829</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -837,8 +852,14 @@
         <f t="shared" si="1"/>
         <v>7.5665999999999993</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11">
+        <v>8846.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -853,8 +874,14 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -873,7 +900,7 @@
         <v>11.1873</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -892,7 +919,7 @@
         <v>28.405799999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -911,7 +938,7 @@
         <v>18.482099999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1109,39 +1136,6 @@
       <c r="E26">
         <f t="shared" si="1"/>
         <v>19.014299999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <f>MAX(D2:D26)</f>
-        <v>265.39169999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31">
-        <v>8846.39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1153,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L418"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A398" workbookViewId="0">
+      <selection sqref="A1:L418"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DOCUMENTATION/TRACETABLE.xlsx
+++ b/DOCUMENTATION/TRACETABLE.xlsx
@@ -9,17 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TEST DATA 1" sheetId="2" r:id="rId1"/>
     <sheet name="TRACETABLE_TESTDATA1" sheetId="3" r:id="rId2"/>
     <sheet name="STAFF_MEMBER_DATA" sheetId="4" r:id="rId3"/>
     <sheet name="STAFF_MEMBER_DATA_TRACETABLE" sheetId="5" r:id="rId4"/>
+    <sheet name="5 PEOPLE TT" sheetId="6" r:id="rId5"/>
+    <sheet name="5 PEOPLETT" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_2" localSheetId="3">STAFF_MEMBER_DATA_TRACETABLE!$A$2:$L$285</definedName>
     <definedName name="_2" localSheetId="1">TRACETABLE_TESTDATA1!$A$2:$L$418</definedName>
+    <definedName name="_3" localSheetId="5">'5 PEOPLETT'!$A$2:$L$94</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -68,11 +71,29 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="3" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\ADMIN\Google Drive\I.T\Justin\SBA PASCAL\SBAv2\3.txt" tab="0" comma="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="123">
   <si>
     <t>i</t>
   </si>
@@ -415,6 +436,33 @@
   <si>
     <t>Yoana Tatham</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Sales Details_1</t>
+  </si>
+  <si>
+    <t>Sales Details_2</t>
+  </si>
+  <si>
+    <t>Commission1</t>
+  </si>
+  <si>
+    <t>Commission2</t>
+  </si>
+  <si>
+    <t>Highest Commission Name</t>
+  </si>
+  <si>
+    <t>Commission</t>
+  </si>
+  <si>
+    <t>Sales Details</t>
+  </si>
+  <si>
+    <t># of People Without Commission</t>
+  </si>
 </sst>
 </file>
 
@@ -537,6 +585,10 @@
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="2" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="3" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -804,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9:G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16306,7 +16358,7 @@
         <v>15070</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" ref="D3:D18" si="0">A4&amp;" "&amp;B4</f>
+        <f t="shared" ref="D4:D18" si="0">A4&amp;" "&amp;B4</f>
         <v>Derrick Bridges</v>
       </c>
       <c r="E4" s="4">
@@ -16599,8 +16651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L285"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L89" sqref="A1:L285"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26763,4 +26815,3504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>3507.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1982933</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>-4550.58</v>
+      </c>
+      <c r="C10">
+        <v>932.12</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D8:D11" si="0">(B10* 0.03)</f>
+        <v>-136.51739999999998</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E8:E11" si="1">(C10 * 0.03)</f>
+        <v>27.9636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>4165.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14">
+        <v>59487.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D15">
+        <v>1982933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="A1:L94"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="7" width="9" customWidth="1"/>
+    <col min="8" max="11" width="2" customWidth="1"/>
+    <col min="12" max="12" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3507.49</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>3507.49</v>
+      </c>
+      <c r="E19">
+        <v>105.22</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20">
+        <v>3507.49</v>
+      </c>
+      <c r="E20">
+        <v>105.22</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>3507.49</v>
+      </c>
+      <c r="E21">
+        <v>105.22</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>1982933</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>1982933</v>
+      </c>
+      <c r="E27">
+        <v>59487.99</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>1982933</v>
+      </c>
+      <c r="E28">
+        <v>59487.99</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>1982933</v>
+      </c>
+      <c r="E29">
+        <v>59487.99</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>5</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>5</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42">
+        <v>-4550.58</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>-4550.58</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>12</v>
+      </c>
+      <c r="D44">
+        <v>932.12</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45">
+        <v>932.12</v>
+      </c>
+      <c r="E45">
+        <v>27.96</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46">
+        <v>932.12</v>
+      </c>
+      <c r="E46">
+        <v>27.96</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D47">
+        <v>932.12</v>
+      </c>
+      <c r="E47">
+        <v>27.96</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>4165.05</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>4165.05</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>4165.05</v>
+      </c>
+      <c r="E53">
+        <v>124.95</v>
+      </c>
+      <c r="F53">
+        <v>4165.05</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>4165.05</v>
+      </c>
+      <c r="E54">
+        <v>124.95</v>
+      </c>
+      <c r="F54">
+        <v>4165.05</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>4165.05</v>
+      </c>
+      <c r="E55">
+        <v>124.95</v>
+      </c>
+      <c r="F55">
+        <v>4165.05</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>4165.05</v>
+      </c>
+      <c r="E56">
+        <v>124.95</v>
+      </c>
+      <c r="F56">
+        <v>105.22</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>4165.05</v>
+      </c>
+      <c r="E57">
+        <v>124.95</v>
+      </c>
+      <c r="F57">
+        <v>105.22</v>
+      </c>
+      <c r="G57">
+        <v>105.22</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>5</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>4165.05</v>
+      </c>
+      <c r="E58">
+        <v>124.95</v>
+      </c>
+      <c r="F58">
+        <v>59487.99</v>
+      </c>
+      <c r="G58">
+        <v>105.22</v>
+      </c>
+      <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>4165.05</v>
+      </c>
+      <c r="E59">
+        <v>124.95</v>
+      </c>
+      <c r="F59">
+        <v>59487.99</v>
+      </c>
+      <c r="G59">
+        <v>59487.99</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>2</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>4165.05</v>
+      </c>
+      <c r="E60">
+        <v>124.95</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>59487.99</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>4165.05</v>
+      </c>
+      <c r="E61">
+        <v>124.95</v>
+      </c>
+      <c r="F61">
+        <v>27.96</v>
+      </c>
+      <c r="G61">
+        <v>59487.99</v>
+      </c>
+      <c r="H61">
+        <v>4</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>2</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>4165.05</v>
+      </c>
+      <c r="E62">
+        <v>124.95</v>
+      </c>
+      <c r="F62">
+        <v>124.95</v>
+      </c>
+      <c r="G62">
+        <v>59487.99</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>2</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>4165.05</v>
+      </c>
+      <c r="E63">
+        <v>124.95</v>
+      </c>
+      <c r="F63">
+        <v>124.95</v>
+      </c>
+      <c r="G63">
+        <v>59487.99</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>4165.05</v>
+      </c>
+      <c r="E64">
+        <v>124.95</v>
+      </c>
+      <c r="F64">
+        <v>124.95</v>
+      </c>
+      <c r="G64">
+        <v>59487.99</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>4165.05</v>
+      </c>
+      <c r="E65">
+        <v>124.95</v>
+      </c>
+      <c r="F65">
+        <v>105.22</v>
+      </c>
+      <c r="G65">
+        <v>59487.99</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>4165.05</v>
+      </c>
+      <c r="E66">
+        <v>124.95</v>
+      </c>
+      <c r="F66">
+        <v>59487.99</v>
+      </c>
+      <c r="G66">
+        <v>59487.99</v>
+      </c>
+      <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>2</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>5</v>
+      </c>
+      <c r="B67">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>4165.05</v>
+      </c>
+      <c r="E67">
+        <v>124.95</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>59487.99</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>5</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>4165.05</v>
+      </c>
+      <c r="E68">
+        <v>124.95</v>
+      </c>
+      <c r="F68">
+        <v>27.96</v>
+      </c>
+      <c r="G68">
+        <v>59487.99</v>
+      </c>
+      <c r="H68">
+        <v>4</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>4165.05</v>
+      </c>
+      <c r="E69">
+        <v>124.95</v>
+      </c>
+      <c r="F69">
+        <v>124.95</v>
+      </c>
+      <c r="G69">
+        <v>59487.99</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>5</v>
+      </c>
+      <c r="B70">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>4165.05</v>
+      </c>
+      <c r="E70">
+        <v>124.95</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>59487.99</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>2</v>
+      </c>
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>4165.05</v>
+      </c>
+      <c r="E71">
+        <v>124.95</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>59487.99</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>5</v>
+      </c>
+      <c r="B72">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>4165.05</v>
+      </c>
+      <c r="E72">
+        <v>124.95</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>59487.99</v>
+      </c>
+      <c r="H72">
+        <v>6</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>4165.05</v>
+      </c>
+      <c r="E73">
+        <v>124.95</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>59487.99</v>
+      </c>
+      <c r="H73">
+        <v>6</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74">
+        <v>3507.49</v>
+      </c>
+      <c r="E74">
+        <v>105.22</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>59487.99</v>
+      </c>
+      <c r="H74">
+        <v>6</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>5</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75">
+        <v>3507.49</v>
+      </c>
+      <c r="E75">
+        <v>105.22</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>59487.99</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>2</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76">
+        <v>3507.49</v>
+      </c>
+      <c r="E76">
+        <v>105.22</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>59487.99</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>5</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77">
+        <v>3507.49</v>
+      </c>
+      <c r="E77">
+        <v>105.22</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>59487.99</v>
+      </c>
+      <c r="H77">
+        <v>6</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78">
+        <v>1982933</v>
+      </c>
+      <c r="E78">
+        <v>59487.99</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>59487.99</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>5</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79">
+        <v>1982933</v>
+      </c>
+      <c r="E79">
+        <v>59487.99</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>59487.99</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
+      </c>
+      <c r="L79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>1982933</v>
+      </c>
+      <c r="E80">
+        <v>59487.99</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>59487.99</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>2</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81">
+        <v>1982933</v>
+      </c>
+      <c r="E81">
+        <v>59487.99</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>59487.99</v>
+      </c>
+      <c r="H81">
+        <v>6</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>59487.99</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>59487.99</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>2</v>
+      </c>
+      <c r="K83">
+        <v>1</v>
+      </c>
+      <c r="L83" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84">
+        <v>3</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>59487.99</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>2</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>59487.99</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85">
+        <v>1</v>
+      </c>
+      <c r="L85" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86">
+        <v>932.12</v>
+      </c>
+      <c r="E86">
+        <v>27.96</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>59487.99</v>
+      </c>
+      <c r="H86">
+        <v>6</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>5</v>
+      </c>
+      <c r="B87">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87">
+        <v>932.12</v>
+      </c>
+      <c r="E87">
+        <v>27.96</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>59487.99</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>5</v>
+      </c>
+      <c r="B88">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88">
+        <v>932.12</v>
+      </c>
+      <c r="E88">
+        <v>27.96</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>59487.99</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>5</v>
+      </c>
+      <c r="B89">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89">
+        <v>932.12</v>
+      </c>
+      <c r="E89">
+        <v>27.96</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>59487.99</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+      <c r="L89" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>5</v>
+      </c>
+      <c r="B90">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>4165.05</v>
+      </c>
+      <c r="E90">
+        <v>124.95</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>59487.99</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>5</v>
+      </c>
+      <c r="B91">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>4165.05</v>
+      </c>
+      <c r="E91">
+        <v>124.95</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>59487.99</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>5</v>
+      </c>
+      <c r="B92">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>4165.05</v>
+      </c>
+      <c r="E92">
+        <v>124.95</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>59487.99</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+      <c r="L92" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>4165.05</v>
+      </c>
+      <c r="E93">
+        <v>124.95</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>59487.99</v>
+      </c>
+      <c r="H93">
+        <v>6</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>2</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>4165.05</v>
+      </c>
+      <c r="E94">
+        <v>124.95</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>59487.99</v>
+      </c>
+      <c r="H94">
+        <v>6</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+      <c r="L94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>